--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-19.818</v>
+        <v>-20.229</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.784</v>
+        <v>-20.053</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.168</v>
+        <v>16.327</v>
       </c>
     </row>
     <row r="8">
@@ -695,12 +695,12 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.956</v>
+        <v>-22.033</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.438</v>
+        <v>16.414</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.478</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.602</v>
+        <v>16.434</v>
       </c>
     </row>
     <row r="24">
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.062</v>
+        <v>-22.087</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.864</v>
+        <v>-21.344</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.694</v>
+        <v>-21.816</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>16.814</v>
+        <v>16.805</v>
       </c>
     </row>
     <row r="35">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.302</v>
+        <v>-19.965</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.592</v>
+        <v>17.083</v>
       </c>
     </row>
     <row r="44">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.472</v>
+        <v>16.774</v>
       </c>
     </row>
     <row r="46">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.614</v>
+        <v>16.403</v>
       </c>
     </row>
     <row r="51">
@@ -1307,12 +1307,12 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.212</v>
+        <v>16.828</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.04</v>
+        <v>-21.963</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.106</v>
+        <v>-22.275</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.62</v>
+        <v>-21.546</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.094</v>
+        <v>17.394</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.85</v>
+        <v>17.325</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.082</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.688</v>
+        <v>16.608</v>
       </c>
     </row>
     <row r="85">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.542</v>
+        <v>17.885</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>17.056</v>
+        <v>16.769</v>
       </c>
     </row>
     <row r="98">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.794</v>
+        <v>-22.121</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
